--- a/processed/MRNGO_concepts.xlsx
+++ b/processed/MRNGO_concepts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_ALEX_\RESEARCH\MRNGO\A_conceptnorm\data\school-pilot\processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/illesanna/Desktop/DOKUMENTUMOK/ELTE/SZAKDOLGOZAT/data/MRNGO_mini-norm/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5950A94-25D8-412D-9634-92EF9F614130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A15BE97-B74A-9F44-903E-10E7C63DC0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="2130" windowWidth="21600" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3940" yWindow="2140" windowWidth="21600" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="concepts" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>item</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>word_frequency</t>
+  </si>
+  <si>
+    <t>natural</t>
   </si>
 </sst>
 </file>
@@ -709,26 +712,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8721C72-8842-4090-ACA8-C60AEBD4D546}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,22 +746,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -771,22 +778,25 @@
         <v>27</v>
       </c>
       <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>141</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>18</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>49</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
@@ -800,19 +810,22 @@
         <v>52</v>
       </c>
       <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>555</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>21</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
@@ -826,10 +839,13 @@
         <v>68</v>
       </c>
       <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>6.6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -843,22 +859,25 @@
         <v>48</v>
       </c>
       <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>6.4</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>39</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>27</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>41</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
@@ -872,19 +891,22 @@
         <v>57</v>
       </c>
       <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>6.2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>148</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>25</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -897,23 +919,26 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>38</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>31</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -927,19 +952,22 @@
         <v>27</v>
       </c>
       <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
         <v>6.8</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>47</v>
-      </c>
-      <c r="H8">
-        <v>56</v>
       </c>
       <c r="I8">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -953,22 +981,25 @@
         <v>27</v>
       </c>
       <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>6.6</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>28</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>21</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>50</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -982,19 +1013,22 @@
         <v>36</v>
       </c>
       <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
         <v>7</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>21</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>26</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
@@ -1007,20 +1041,23 @@
       <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>6.8</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>69</v>
-      </c>
-      <c r="H11">
-        <v>77</v>
       </c>
       <c r="I11">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1034,19 +1071,22 @@
         <v>38</v>
       </c>
       <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
         <v>6.8</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>14</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>25</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>65</v>
       </c>
@@ -1060,16 +1100,19 @@
         <v>64</v>
       </c>
       <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
         <v>6.4</v>
-      </c>
-      <c r="H13">
-        <v>63</v>
       </c>
       <c r="I13">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1083,19 +1126,22 @@
         <v>42</v>
       </c>
       <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
         <v>6.4</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9</v>
-      </c>
-      <c r="H14">
-        <v>47</v>
       </c>
       <c r="I14">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -1109,19 +1155,22 @@
         <v>31</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>7</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4</v>
-      </c>
-      <c r="H15">
-        <v>51</v>
       </c>
       <c r="I15">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1134,23 +1183,26 @@
       <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>6.8</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>115</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>19</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>42</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
@@ -1164,16 +1216,19 @@
         <v>60</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>4.8</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1187,22 +1242,25 @@
         <v>16</v>
       </c>
       <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
         <v>6.4</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>62</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>20</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>32</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
@@ -1216,19 +1274,22 @@
         <v>60</v>
       </c>
       <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
         <v>6.6</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>148</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>21</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -1242,19 +1303,22 @@
         <v>48</v>
       </c>
       <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
         <v>7</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>51</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>22</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1267,23 +1331,26 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>7</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2076</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>17</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>33</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1297,19 +1364,22 @@
         <v>16</v>
       </c>
       <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
         <v>6.4</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>46</v>
-      </c>
-      <c r="H22">
-        <v>36</v>
       </c>
       <c r="I22">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1322,23 +1392,26 @@
       <c r="D23" t="s">
         <v>10</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>6.6</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>216</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>20</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>49</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1351,23 +1424,26 @@
       <c r="D24" t="s">
         <v>20</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>7</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>10</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>21</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>94</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1381,19 +1457,22 @@
         <v>33</v>
       </c>
       <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
         <v>6.8</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>170</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>29</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1406,23 +1485,26 @@
       <c r="D26" t="s">
         <v>23</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>6.8</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>25</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>60</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
@@ -1436,19 +1518,22 @@
         <v>54</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>6.2</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>66</v>
+      <c r="G27">
+        <v>1</v>
       </c>
       <c r="I27">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -1462,22 +1547,25 @@
         <v>13</v>
       </c>
       <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
         <v>6.8</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>662</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>19</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>45</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -1491,22 +1579,25 @@
         <v>52</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>6.6</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>10</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>25</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>55</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
@@ -1520,22 +1611,25 @@
         <v>40</v>
       </c>
       <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
         <v>6.8</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>14</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>27</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>61</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
@@ -1549,6 +1643,9 @@
         <v>67</v>
       </c>
       <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
         <v>7</v>
       </c>
     </row>
